--- a/output/info.xlsx
+++ b/output/info.xlsx
@@ -6,8 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="10-19" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="newsheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10-20" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10-19" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="newsheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -413,6 +414,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>小红书id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>个人简介</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>粉丝数</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>点赞数</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>前两篇点赞数</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3051,7 +3103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/output/info.xlsx
+++ b/output/info.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -4036,6 +4036,4006 @@
       <c r="F113" t="inlineStr">
         <is>
           <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>&amp;#128055;要把书读烂（备考</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>9478594995</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>&amp;#127800;英专生丨23考研er 丨学科英语 &amp;#10;&amp;#128147;备考丨专八丨CATTI&amp;#10;&amp;#128061;plog丨vlog丨直播记录学习日常&amp;#10;&amp;#128149;Nice to meet you guys.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1821</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>哎呦小洋</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2657659851</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>hi&amp;#10;同款衣服都进群～</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>3.4 万</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>咩咩&amp;#128055;要减肥（考研</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2129219848</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>23考研 临床医学&amp;#10;直播时间：&amp;#10;上午：8:00～11:40&amp;#10;下午：14:10～5:40&amp;#10;晚上20:00～23:00</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>3119</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>咩咩&amp;#128055;要减肥（考研</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2129219848</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>23考研 临床医学&amp;#10;直播时间：&amp;#10;上午：8:00～11:40&amp;#10;下午：14:10～5:40&amp;#10;晚上20:00～23:00</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>黄橙子</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1089918191</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>普通人&amp;#10;谢谢你们的喜欢～</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2.6 万</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>&amp;#128055;要把书读烂（备考</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>9478594995</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>&amp;#127800;英专生丨23考研er 丨学科英语 &amp;#10;&amp;#128147;备考丨专八丨CATTI&amp;#10;&amp;#128061;plog丨vlog丨直播记录学习日常&amp;#10;&amp;#128149;Nice to meet you guys.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1821</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>&amp;#128055;要把书读烂（备考</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>9478594995</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>&amp;#127800;英专生丨23考研er 丨学科英语 &amp;#10;&amp;#128147;备考丨专八丨CATTI&amp;#10;&amp;#128061;plog丨vlog丨直播记录学习日常&amp;#10;&amp;#128149;Nice to meet you guys.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1821</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>王宣懿懿懿</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1524191442</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>小众服装爱好者</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>9711</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>蘑菇蘑菇上岸啦</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>5600971060</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>985本硕，目前研三备考公和编，还没上岸别误会【正在真实演绎研三考编狗的崩溃生活】&amp;#10;&amp;#128127;每天直播复习写论文除外，快来监督我！&amp;#10;我是个学渣，也许可以给你一些经验建议，防止你走跟我一样的弯路&amp;#128159;</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1.8 万</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>五亿颗小铃铛</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>860529419</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>&amp;#128218;不定时分享学习日常&amp;#10;✨这里是我的生活日记：爱电影 爱文字还有一只小玄鸡</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>3959</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jjnooova_</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>196765510</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>我是nova&amp;#129510;&amp;#128218;☔️很高兴认识你呀(^_−)☆&amp;#10;&amp;#127849;小破站&amp;amp;&amp;#128147;IG: jjno_ova&amp;#10;&amp;#129507;: no_ova&amp;#10;&amp;#128238;: jjno_ova@qq.com</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2.2 万</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Camellia京</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2875770784</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>教资|六级|大英赛|备考中&amp;#10;学习方法|干货分享&amp;#128218;&amp;#10;感谢大家的喜欢！&amp;#128149;</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>5.3 万</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>66天极限考研！</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2974509337</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>打卡记录自己极限挑战考研的过程！&amp;#10;现在就一个目标：上岸！！！&amp;#10;&amp;#10;二战脱产考研|计算机专硕|英二数二</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>苏尔sur</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>953026309</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>野生博主——不定时上传好物分享&amp;#129530;&amp;#10;小户型家居用品推荐 &amp;#10;支持一切理性消费行为，讨厌堆积物品。&amp;#10;喜欢的亲点关注</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>6880</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ihatebanana</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>296019888</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>小小的屋顶 灌木在生长</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1717</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1.8 万</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>人间水蜜桃&amp;#127825;</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>189299651</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>22考研｜上岸mpacc｜研一｜学业和生活碎碎念&amp;#128157;&amp;#10;备考帖在最下面⬇️</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>9597</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>咩咩&amp;#128055;要减肥（考研</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2129219848</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>23考研 临床医学&amp;#10;直播时间：&amp;#10;上午：8:00～11:40&amp;#10;下午：14:10～5:40&amp;#10;晚上20:00～23:00</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>水木月</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>818824839</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>身高156 体重78&amp;#10;&amp;#128221;不修图 &amp;#10;有男朋友 感谢官方</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>-小s超爱香菜-</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1620710417</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>研究生在读&amp;#10;永远的快乐小狗enfp &amp;#10;哪里都是这个名字&amp;#10;这里没有焦虑 让我们快乐做自己</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>7509</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>充电宝妈妈</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>578690049</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>33岁新手妈妈&amp;#10;文案码手&amp;#10;看起来不好欺负，其实真不好欺负&amp;#10;关注我，一起做个好哇塞的人！！</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>9723</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>iiiiyeon&amp;#129361;</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>id_ChenSeonNum</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>23届艺术设计考研选手</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>4144</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>下巴疼</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>849271839</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>分享喜欢&amp;#10; 172/94</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3121</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3.2 万</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>咩咩&amp;#128055;要减肥（考研</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2129219848</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>23考研 临床医学&amp;#10;直播时间：&amp;#10;上午：8:00～11:40&amp;#10;下午：14:10～5:40&amp;#10;晚上20:00～23:00</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>17setten</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>6225158394</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>158/82&amp;#10;接&amp;#127540;️</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>4.5 万</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>闵千斤JIN</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>297445337</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>&amp;#127540;️私注明牌子</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>3.6 万</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>花不仙</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>564864511</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>凡是过去，皆为序章</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>6105</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>宜</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>460383219</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>探店｜美食｜健身｜护肤&amp;#10;&amp;#127540;️作请私信</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2.2 万</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>雅年梨</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>c1211yl</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>&amp;#127824;</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>5938</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>蓝妹妹</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>267827343</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>手机内存已满</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>快来吐泡泡</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>jemions</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>分享所思所见所想</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>5360</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>咩咩&amp;#128055;要减肥（考研</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2129219848</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>23考研 临床医学&amp;#10;直播时间：&amp;#10;上午：8:00～11:40&amp;#10;下午：14:10～5:40&amp;#10;晚上20:00～23:00</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Kaia</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>606952230</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>奇奇怪怪&amp;#129418;可可爱爱&amp;#128048;&amp;#10;&amp;#128205;天津</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>山风</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>563030396</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>未夜青岚入，先秋白露团</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>艺萱</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1186381345</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>你要一直走 走到灯火通明✨&amp;#10; 记录考研过程  日常碎碎念❤️&amp;#10;（精力有限 私信不会刻意回复哦）</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>徐阿胖吃很饱</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>598621308</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>欢迎来的徐阿胖吃吃频道&amp;#10;关注我一起云吃饭呀&amp;#10;不求大富大贵 只求吃饱喝足</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>4972</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>把肥肉带走(考研版)</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1044627223</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>23考研中～&amp;#10;管理类联考&amp;#10;目标：西南政法大学&amp;#10;把书读烂&amp;#10;我们都是研究生！</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2.2 万</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>山椒鱼</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>4276267350</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>接寄拍｜推广&amp;#10;174｜103&amp;#10;渴望关注的小孩儿</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2663</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2.0 万</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>化妆师阳阳</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>820539313</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>身上衣服都是实体店买的有想要也可以快递的</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>&amp;#128055;要把书读烂（备考</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>9478594995</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>&amp;#127800;英专生丨23考研er 丨学科英语 &amp;#10;&amp;#128147;备考丨专八丨CATTI&amp;#10;&amp;#128061;plog丨vlog丨直播记录学习日常&amp;#10;&amp;#128149;Nice to meet you guys.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1821</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>努力存钱的老阿姨</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>LAY19921012</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>&amp;#127968;两个大人一个娃 存钱想买大房子&amp;#10;&amp;#128105;&amp;#127995;‍&amp;#127859;一日三餐粗茶淡饭 记录我们的鸡毛蒜皮&amp;#10;❤️‍&amp;#128293;极致的节俭主义者 将节俭生活进行到底&amp;#10;&amp;#128237;1048497033@qq.com&amp;#10;&amp;#127905;每天更新！！！！</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2405</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>5743</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>小汪赶快去学习</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>188159872</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>一枚98年普普通通二本财管女大学生 &amp;#128105;‍&amp;#127891;&amp;#10;分享学习/论文/备考/生活/成长历程&amp;#127872;&amp;#10;&amp;#129507;：汪小久喔 &amp;#10;&amp;#128238;: wangziting1998@163.com</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>真的很开心</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>181766362</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>不完全记录​​​દ ᵕ̈ ૩  &amp;#10;  ʚ&amp;#128055;ɞ 168 98</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>3.9 万</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>一只普普</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TT55854228</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>感谢你来看我这个普（是个男生）&amp;#10;&amp;#127762;不定期更新设计手绘与分享&amp;#10;&amp;#127768;深圳大学艺术设计（产品）硕士&amp;#10;&amp;#127766;问题、设计咨询、&amp;#127540;️等可以直戳～</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Stephanie唐晚</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>296464756</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>00后♍️女生&amp;#10;喜欢分享生活</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>6.0 万</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>&amp;#128055;要把书读烂（备考</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>9478594995</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>&amp;#127800;英专生丨23考研er 丨学科英语 &amp;#10;&amp;#128147;备考丨专八丨CATTI&amp;#10;&amp;#128061;plog丨vlog丨直播记录学习日常&amp;#10;&amp;#128149;Nice to meet you guys.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>碳水小炸弹&amp;#128165;</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>630356398</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>笑一个吧 功成名就不是目的</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1.1 万</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>花花学姐</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>112968471</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>考研资料&amp;#10;学生日常&amp;#10;矫情文学</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>天水文昌书局</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>110758207</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>尝试生活的另一种可能&amp;#10;店主在西北小城天水&amp;#10;店主95后 26岁 打招呼不需要用您</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>7327</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>9.8 万</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ai瑾瑾子</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Ariel_jin0227</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>小李日记&amp;#129322;&amp;#10;一个乱七八糟share的女大学生&amp;#10;160/40穿搭｜饰品｜好物&amp;#10;&amp;#128238;1210732989@qq.com（记得备注</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>别管我啦！</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>551112140</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>不想上早自习(｡ ́︿ ̀｡)&amp;#10;有些网友别管我了 xin吗？</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>蛋黄酥想画画</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0_ohhh</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>随便发点儿</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Melody-2</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>3877878610</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>一个美女</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1801</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>我爱每一天</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>4270744340</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>二战备考22408✊&amp;#10;今年一定一志愿上岸！！！</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2537</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>简～单</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1057583536</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>90后宝妈，家有俩宝</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>小汪赶快去学习</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>188159872</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>一枚98年普普通通二本财管女大学生 &amp;#128105;‍&amp;#127891;&amp;#10;分享学习/论文/备考/生活/成长历程&amp;#127872;&amp;#10;&amp;#129507;：汪小久喔 &amp;#10;&amp;#128238;: wangziting1998@163.com</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>末初</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>426615212</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>&amp;#127752;保持清醒 坚持自律&amp;#10;&amp;#127799;种草·购物·美食·生活&amp;#10;&amp;#127872;风格不限 学生党好物分享&amp;#10;谢谢每个关注我的你呀&amp;#129782;&amp;#127995;</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2.1 万</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>吐司吐司&amp;#127838;</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>402830833</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>&amp;#129507;TiAmo935&amp;#10;浪漫小狗有自己的乌托邦</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>8920</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>今天不喝奶茶</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>610626270</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>热爱生活</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3297</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1.5 万</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Ellen</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>977879385</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>思考人生&amp;#10;从记账开始&amp;#10;生活物品：减少不必要的浪费&amp;#10;人际关系：远离让自己心累的人&amp;#10;【争取到明年年底，存到第一笔养老钱】</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>shoal</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>425326761</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>生化环材人</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>焦糖布丁（已有闺）</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>786027498</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>喝奶茶就不疲惫了  奶茶是由奶  茶和糖构成的  奶和茶都是很健康的  而糖是主要供能物质  所以今天就搞一杯奶茶吧&amp;#129483;！</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>你要跳舞吗（考研版）</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>855884453</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>来得及 我可以&amp;#10;每天7:30-22:00直播学习（约束自己）&amp;#10;每周不定时会休息 或者有事会中断&amp;#10;（最近不一定准时 想播就播了）</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>只只</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>xuanxuano3o</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>身高166可以做参考～&amp;#10;&amp;#128238;：934528819@qq.com</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>5.4 万</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>陈帅言</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1048140195</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>173cm/55kg</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>9458</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>连续的芋圆</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>635912687</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>·‿·</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>小汪赶快去学习</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>188159872</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>一枚98年普普通通二本财管女大学生 &amp;#128105;‍&amp;#127891;&amp;#10;分享学习/论文/备考/生活/成长历程&amp;#127872;&amp;#10;&amp;#129507;：汪小久喔 &amp;#10;&amp;#128238;: wangziting1998@163.com</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>猪仔包</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>577685397</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>168/106</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>6144</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>6.3 万</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>你要跳舞吗（考研版）</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>855884453</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>来得及 我可以&amp;#10;每天7:30-22:00直播学习（约束自己）&amp;#10;每周不定时会休息 或者有事会中断&amp;#10;（最近不一定准时 想播就播了）</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>刘一手</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>279698541</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>日常分享。</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2266</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>MM_Elbow</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>549987409</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>170/98 &amp;#10;叫我肘子就好了</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>5.9 万</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>小汪赶快去学习</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>188159872</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>一枚98年普普通通二本财管女大学生 &amp;#128105;‍&amp;#127891;&amp;#10;分享学习/论文/备考/生活/成长历程&amp;#127872;&amp;#10;&amp;#129507;：汪小久喔 &amp;#10;&amp;#128238;: wangziting1998@163.com</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>宁静致远</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>275851752</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>日常闲置衣服&amp;#10;基本都是9成新 部分衣服微瑕 追求完美勿拍&amp;#10;低价出售 ⚠️no退no换</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>张三岁</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>408714832</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>我从不怀疑真心&amp;#10;可真心瞬息万变</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>9627</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1.7 万</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Yuki酱</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>637269174</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>173｜装修｜&amp;#128110;&amp;#127995;‍♀️嫂备婚中&amp;#10;根正苗红体制内女孩&amp;#128103;&amp;#127995;&amp;#10;分享喜欢的事物和日常生活&amp;#129419;&amp;#10;友情提示：脾气不好 冲浪请注意言辞&amp;#128299;</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2549</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1.1 万</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Colon</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>498569410</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>&amp;#128238;：2729089964@qq.com</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>快点瘦到100斤叭</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>461076626</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>171 108</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>4.9 万</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Roxy</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>110849671</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>努力学习&amp;#10;爱打游戏爱旅游&amp;#10;在墨尔本大学读研&amp;#127462;&amp;#127482;</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>奶泡泡喝不饱</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>9453344383</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>一个从零开始学习插画的绘画小白&amp;#10;你要陪我一起成为大佬吗？&amp;#10;打卡开始了 一起来吧</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1.4 万</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>灵魂永远自由</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>487189564</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>分享穿搭</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>9279</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Cxiii_15</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>938231695</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>希(≧▽≦)</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2128</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>下巴疼</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>849271839</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>分享喜欢&amp;#10; 172/94</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>3.2 万</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>多肉</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>349865124</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>随缘分享 不喜勿喷</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>5274</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>3.3 万</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>一只普普</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>TT55854228</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>感谢你来看我这个普（是个男生）&amp;#10;&amp;#127762;不定期更新设计手绘与分享&amp;#10;&amp;#127768;深圳大学艺术设计（产品）硕士&amp;#10;&amp;#127766;问题、设计咨询、&amp;#127540;️等可以直戳～</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>4201</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>&amp;#128055;要把书读烂（备考</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>9478594995</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>&amp;#127800;英专生丨23考研er 丨学科英语 &amp;#10;&amp;#128147;备考丨专八丨CATTI&amp;#10;&amp;#128061;plog丨vlog丨直播记录学习日常&amp;#10;&amp;#128149;Nice to meet you guys.</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>可能是只鱼</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>451656196</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>&amp;#128111;‍♂️想做百变麻豆</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2702</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>噗噗想要吃不胖</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>4965676136</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>&amp;#128073;158/87斤（原体重106斤 目标87斤，已完成✅）&amp;#10;&amp;#128073;在校女大学生&amp;#10;&amp;#128073;减肥中&amp;#10;&amp;#128073;新目标80斤&amp;#10;&amp;#128073;每日更新壁纸头像表情包</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2188</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>蔡夫人的慢时光</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>944410841</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>记录✔我日常乱七八糟的碎事吐槽什么的&amp;#10;钩针✔自学中 希望能坚持下去&amp;#128514;&amp;#10;分享✔小红书好物体验测评…更多</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2348</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>9.5 万</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>北塔琼桃子</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>534372099</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>记录生活&amp;#10;&amp;#127464;&amp;#127475;&amp;#127468;&amp;#127463;</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>7629</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>yaaa</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>5600704128</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>记录&amp;#128105;‍❤️‍&amp;#128104;</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>8827</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>小琳不吃香菜</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>cll20051004</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>165 103斤&amp;#10;&amp;#127540;️私&amp;#10;&amp;#128234;3327035133@qq.com</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2.0 万</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>努力存钱的老阿姨</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>LAY19921012</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>&amp;#127968;两个大人一个娃 存钱想买大房子&amp;#10;&amp;#128105;&amp;#127995;‍&amp;#127859;一日三餐粗茶淡饭 记录我们的鸡毛蒜皮&amp;#10;❤️‍&amp;#128293;极致的节俭主义者 将节俭生活进行到底&amp;#10;&amp;#128237;1048497033@qq.com&amp;#10;&amp;#127905;每天更新！！！！</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>5834</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Ann your</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>627896392</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>分享普通人的普通日常～</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2099</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>俏俏俏（早点睡）</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>156254442</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>接受指出错误，交流学习方法，不接受挑刺，大家一起努力，共同上岸（在师大，欢迎咨询）</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>限定壹</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>667444637</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>170｜98&amp;#10;很喜欢郁金香&amp;#127799;</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>6.1 万</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>羊毛卷耳朵</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>186194065</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>我和舟舟&amp;#10;第二个朋友圈</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1.1 万</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>小吕nb_</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>303503447</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>158/83分享穿搭&amp;#10;感谢喜欢&amp;#10;&amp;#128238;a1403990633@qq.com</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>9842</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>10.6 万</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>嘎嘎三吉</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>539790933</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>平安快乐</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1.4 万</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>辣椒香菜葱我都要</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>182778226</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>喜欢分享，喜欢记录生活，废话超级多的双鱼座。</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>5132</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>叮咚叮咚乐</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>cuteyue_1234567</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>臭屁的女生&amp;#10;喜欢追剧磕cp 别bb我想磕哪对磕哪对&amp;#10;喜欢云养娃：威本建娜and福瑞小儿子&amp;#10;侵❌删</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1.7 万</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hbzfh</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>9470959485</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>(^з^)-☆</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>5108</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>耶耶耶</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>5607385710</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>真的理想吗</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>8.1 万</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Axew-</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1116884884</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>发牙了</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>贝贝今天吃什么</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>619732561</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>自私无聊不和笨蛋玩</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>螞蟻</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>948725155</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>普通打工人的存档&amp;#128193;</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>9009</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>花花学姐</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>112968471</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>考研资料&amp;#10;学生日常&amp;#10;矫情文学</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>木宁蒙居士</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>383384953</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>我会让世界美好一点点点</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1.8 万</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>精神病人2号</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>9522732953</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>不响画辣</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2367</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2.7 万</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>窝窝</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>106758310</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>&amp;#128205;深圳&amp;#10;&amp;#128102;BOBO 2021.3.20&amp;#10;母婴| OOTD｜日常分享…更多</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>1096</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2336</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>小宇和老宋</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>6568425503</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>我想去的地方很好，我爱的人值得</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2714</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>都来了吧</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>4136047331</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>感谢小红书官方大大，感谢大家一路支持，承蒙厚爱，感谢关注！我会努力更新的</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>7370</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>宝贝艺艺子</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>188640191</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>我太喜欢我的女朋友啦&amp;#10; ps一个永不服输的男人</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2.5 万</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>老板看不见我&amp;#128584;</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1512895910</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>&amp;#128221;记录打工日常| 做个仪式感的打工人 （摸鱼王者&amp;#128031;）&amp;#10;&amp;#127799;平价、精致好物分享| 幸福感制造机&amp;#10;&amp;#128524;分享整顿职场、icu领导的工作日常</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2855</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>3.6 万</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>有趣炸ran</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>949690027</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>168/53kg</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2427</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>3.3 万</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>夏娃的肋骨</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>182145655</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>she/her/hers</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>7204</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>una想要一只兔兔</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>540031590</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>傲娇的小公主，我请你当</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1.1 万</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>PiPi怡.</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>666320478</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>某&amp;#127925;:pixy &amp;#10;不愿再当搞笑女</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2798</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>王可乐</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>l1075134264</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>喜欢复古一女的&amp;#10;家居｜好物｜DIY…更多</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>3684</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>5.8 万</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>178</t>
         </is>
       </c>
     </row>

--- a/output/info.xlsx
+++ b/output/info.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,141 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>1144</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>yzz~</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>264422833</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>本科&amp;#128073;研究生 | 特岗老师&amp;#128073;大学老师&amp;#10;&amp;#127891;教育类硕士 | 理论课教师&amp;#10;&amp;#127803;一个普通老师的进阶之路&amp;#10;☀️ 回顾考研读研历程&amp;#10;&amp;#127765;分享日常工作生活</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4830</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Superjayfans</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SY0722779520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>明天穿什么&amp;#10;172 58kg&amp;#10;【334637598@qq.com】</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.8 万</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>小王同学</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>793022731</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>一个备考专升本的普通女大学生&amp;#10;频繁记录和分享着我的学习日常&amp;#10;&amp;#128238;1077484029@qq.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>咩咩&amp;#128055;要减肥（考研</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2129219848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23考研 临床医学&amp;#10;直播时间：&amp;#10;上午：8:00～11:40&amp;#10;下午：14:10～5:40&amp;#10;晚上20:00～23:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3551</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>JAMIE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>263023104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平凡人</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.2 万</t>
         </is>
       </c>
     </row>

--- a/output/info.xlsx
+++ b/output/info.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="10-25" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="10-24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="10-27" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="10-26" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>邮箱</t>
+          <t>初筛邮箱</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -451,829 +451,3673 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>点赞数</t>
+          <t>总点赞数</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>前十篇点赞均数</t>
+          <t>篇均点赞量</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ins博主穿搭</t>
+          <t>甜豆小十</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6942838666</t>
+          <t>394059006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>坐标 韩国首尔&amp;#10;分享ins博主穿搭&amp;#128151;&amp;#10;每日更新穿搭&amp;#10;&amp;#128238;1255890599@qq.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1255890599@qq.com</t>
+          <t>超爱买性价比高的东西！&amp;#10;155 80&amp;#10;谢谢姐妹们的关注</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>2.4 万</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mei</t>
+          <t>黛米妮</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>199853115</t>
+          <t>405106020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>普通人日常穿搭分享&amp;#10;&amp;#129507;kemeiry</t>
+          <t>ᕙ(•̤᷆ ॒ ູ॒•̤᷇)ᕘ臀围93&amp;#10;(  ˃᷄˶˶̫˶˂᷅  )腰围63&amp;#10;(σﾟ∀ﾟ)σ身高163 体重95&amp;#10;跟我身材差不多的姐妹可以参考哦～</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.1 万</t>
-        </is>
+          <t>1.4 万</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>蛋黄乐</t>
+          <t>脑袋困掉了嗷</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>_lelelelelele</t>
+          <t>500805108</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>日常分享&amp;#10;-&amp;#127925;蛋黄樂&amp;#10;166 106&amp;#10;&amp;#128238;2889642006@qq.com</t>
+          <t>&amp;#128420;喜欢漂亮鞋子的蜈蚣精一枚&amp;#10;&amp;#128096;纯分享不卖货 姐妹们理性种草哦&amp;#10;&amp;#127916;拍摄不易 盗图必究&amp;#10;&amp;#128238;984147730@qq.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2889642006@qq.com</t>
+          <t>984147730@qq.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>585</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.5 万</t>
-        </is>
+          <t>4561</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>spotlightII</t>
+          <t>宇宙大王</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>183123685</t>
+          <t>761857117</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>look &amp;#128213;160/50&amp;#10;&amp;#128238;13588351875@163.com</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13588351875@163.com</t>
+          <t>插画｜穿搭｜生活分享｜无聊生活的代糖</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1.1 万</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7449</t>
-        </is>
+          <t>9.2 万</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>458</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>anan</t>
+          <t>三陳小洋房</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>631881492</t>
+          <t>188973704</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>高三美术集训生一枚</t>
+          <t>欢迎光临！&amp;#10;分享日常穿搭✨</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9273</t>
-        </is>
+          <t>2.4 万</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&amp;#127822;坚决不碰体彩</t>
+          <t>Ri Ri</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>577910461</t>
+          <t>363495350</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>肥嘟嘟左卫门&amp;#10;d&amp;#127925;：Liiii果&amp;#127822;&amp;#10;&amp;#129507;：Liiii果</t>
+          <t>好好吃饭 早点休息 杜绝多想 拒绝雌竞&amp;#10;收获快乐（就想到这么多 四字词好难编）</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>756</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.2 万</t>
-        </is>
+          <t>7287</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>女魔头</t>
+          <t>PEETA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1624617737</t>
+          <t>428037625</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>分享自己买到的好东西和日常&amp;#129395;&amp;#10;想发啥就发啥&amp;#128064;&amp;#10;也可以相互倾述哟 反正大家都是陌生人&amp;#128536;&amp;#10;（期待ing）</t>
+          <t>银河有迹可循</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>5.7 万</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8139</t>
-        </is>
+          <t>41.3 万</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>阿耶莎Oo</t>
+          <t>Evelyn__</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KeepRealAys</t>
+          <t>157255937</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>170｜49 喜欢女粉&amp;#128149;&amp;#10;美术生&amp;#127912; 篮球是爱好 谢谢喜欢&amp;#10;偶尔探店 大多数时间都在球场&amp;#10;评论尽量都回复！！！！！！！&amp;#10;&amp;#128238;：781714574@qq.com⁍̴̛ᴗ⁍̴̛</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>781714574@qq.com</t>
+          <t>04 白羊 大一</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6430</t>
+          <t>187</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.2 万</t>
-        </is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>裙子子</t>
+          <t>安奈</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>673938281</t>
+          <t>102531832</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>164 98&amp;#10;普通女大学生&amp;#10;分享我的衣服，偶尔其他，供大家参考。&amp;#10;&amp;#127925;：裙子子</t>
+          <t>&amp;#127468;&amp;#127463;UofG传媒&amp;#10;互联网电商｜外企Retail实习&amp;#10;好物分享｜上学日常&amp;#10;&amp;#127540;️zjz0229@126.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>zjz0229@126.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.4 万</t>
-        </is>
+          <t>7.5 万</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hmfff</t>
+          <t>有藤</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hmfff_zz</t>
+          <t>403891376</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>分享日常</t>
+          <t>&amp;#129419;鸡血藤产自神山脚下，在藏民的心中是美好的夙愿！保佑一生平平安安，顺顺利利！并且有活血补血，舒筋活络的功效！</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>592</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3937</t>
-        </is>
+          <t>2.7 万</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ScoLQii.</t>
+          <t>饼干脑袋</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>950909822</t>
+          <t>492246183</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>▫️分享喜欢!!!</t>
+          <t>&amp;#129293;大姐姐穿搭 | 高跟鞋分享&amp;#10;&amp;#129293;166cm/47kg&amp;#10;&amp;#128238;xhs13142022@yeah.net</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>xhs13142022@yeah.net</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5675</t>
-        </is>
+          <t>1.5 万</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>三七</t>
+          <t>leonao</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>609454202</t>
+          <t>947011020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>这里是热爱生活的三七&amp;#127775;&amp;#10;分享穿搭 推荐喜欢的剧本杀&amp;#10;&amp;#128103;163/94（偶尔95/96）…更多</t>
+          <t>春夏油皮，秋冬混油皮</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.0 万</t>
-        </is>
+          <t>9755</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PiBi.</t>
+          <t>好大一颗芋圆</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>792366186</t>
+          <t>4996310609</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>✨ ⁀➷＝♡投递日常｜&amp;#128248;️&amp;#10;&amp;#128238;zzyujin@qq.com&amp;#10;weibo:_PiiiBi-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>zzyujin@qq.com</t>
+          <t>体重140斤小胖子的变美笔记～&amp;#10;化妆，穿搭，减肥咱都不能落下！&amp;#10;要一起漂漂亮亮地瘦下来啊～</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>8943</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.4 万</t>
-        </is>
+          <t>3.7 万</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>716</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>是星星</t>
+          <t>宁宁公主</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>493644006</t>
+          <t>978308181</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>160/98普通女孩&amp;#10;分享我喜欢的穿搭&amp;#10;&amp;#128140;1017040861@qq.com</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1017040861@qq.com</t>
+          <t>谢谢喜欢 佛系卖家</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>144</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.1 万</t>
-        </is>
+          <t>4372</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>close to you</t>
+          <t>提拉米苏的全智贤</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>158682842</t>
+          <t>128424186</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>分享日常&amp;#10;&amp;#128238;584854893@qq.com</t>
+          <t>普通人分享/随缘臭美&amp;#10;172.125斤，腰围68臀围100&amp;#127824;&amp;#10;谢谢喜欢！&amp;#10;quanzx666@163.com</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>584854893@qq.com</t>
+          <t>quanzx666@163.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4251</t>
+          <t>2.0 万</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.8 万</t>
-        </is>
+          <t>19.5 万</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DNaL</t>
+          <t>小兔子&amp;#128048;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>932135172</t>
+          <t>t5233666</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>&amp;#128238;dinala218@126.com</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>dinala218@126.com</t>
+          <t>学习是场马拉松，抢跑不一定能跑完全程，起步晚了也可以笑到终点。加油&amp;#128170;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1875</t>
-        </is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>胖仔雯</t>
+          <t>未來小富婆&amp;#127864;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>566448385</t>
+          <t>Hyl632125</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>162/105  分享日常穿搭的地方  &amp;#10;&amp;#10;&amp;#128084;&amp;#129507;：吃吃728</t>
+          <t>感谢那么美的你关注了我</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>249</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12.2 万</t>
-        </is>
+          <t>3.2 万</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>小林</t>
+          <t>鼠</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>726894934</t>
+          <t>757463779</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>日更自己喜欢的穿搭～谢谢喜欢^3^&amp;#10;&amp;#128031;正在喝咖啡</t>
+          <t>&amp;#128000;：347594105@qq.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>347594105@qq.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7816</t>
+          <t>884</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.6 万</t>
-        </is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>诘忍生</t>
+          <t>大萌猪的猪</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4779679323</t>
+          <t>906131627</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Body and Fashion as Everyday Activism&amp;#10;姐很高贵</t>
+          <t>今天起 早点睡</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>467</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5173</t>
-        </is>
+          <t>9.5 万</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>W 72</t>
+          <t>MieMie&amp;#128017;</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>262657862</t>
+          <t>268722091</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>没头没脑&amp;#10;&amp;#128238;：3062579720@qq.com</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3062579720@qq.com</t>
+          <t>也配嘴臭我？</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.4 万</t>
-        </is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>张元英</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1124wmy</t>
+          <t>402785367</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>只分享自己喜欢的&amp;#10;170 92&amp;#10;高中生&amp;#10;&amp;#127538;拿图</t>
+          <t>谢谢喜欢 &amp;#128149;纯原相机的真实穿搭分享哦&amp;#10;还有分享一些碎碎念&amp;#10;是165/98的普通大学生啦&amp;#129392;&amp;#10;&amp;#128238;1914411912@qq.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1914411912@qq.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>573</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7.5 万</t>
-        </is>
+          <t>2.8 万</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>917</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tttitiya</t>
+          <t>katybarbie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>262151169</t>
+          <t>109434341</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>^^</t>
+          <t>叫我凯蒂就好啦 &amp;#10;&amp;#128095;爱买鞋子&amp;amp;分享喜欢的东东&amp;#10;163.5/86  jio35/36 &amp;#10;⚖️话很多喜欢和姐妹唠嗑</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5528</t>
+          <t>2.5 万</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10.9 万</t>
-        </is>
+          <t>33.2 万</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2012</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>小方不方</t>
+          <t>AA专业森林出租放贷狸</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8089421260</t>
+          <t>619634438</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>OOTD&amp;#10;身高：167cm 体重：52kg&amp;#10;&amp;#127540;️&amp;#128234;：2958580751@qq.com</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2958580751@qq.com</t>
+          <t>奸商</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>345</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.2 万</t>
-        </is>
+          <t>5.0 万</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>佳佳来了喔</t>
+          <t>昭和女子</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>j061801</t>
+          <t>636732463</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>永远热衷于自由</t>
+          <t>喜欢基础款/校供格裙&amp;#10;一起元气下去吧！</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>235</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7454</t>
-        </is>
+          <t>3354</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bon voyage凡</t>
+          <t>卖炭妞妞</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6222239294</t>
+          <t>518928380</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>喜欢什么分享什么&amp;#10;&amp;#128238;2049962414@qq.com</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2049962414@qq.com</t>
+          <t>碎碎念的小日常</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>203</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.0 万</t>
-        </is>
+          <t>1.2 万</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>yangyang</t>
+          <t>WonHyan_</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nine19998</t>
+          <t>272670626</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>158/84&amp;#10;日常分享&amp;#127799;</t>
+          <t>随便发发&amp;#10;168/100&amp;#10;均为原相机拍摄</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>166</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.9 万</t>
-        </is>
+          <t>7802</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>懒懒-奥莱跑腿</t>
+          <t>sasensan-</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1173556606</t>
+          <t>k491449174</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>逛逛吃吃的奥莱搬运工</t>
+          <t>162 93&amp;#10;谢谢喜欢 不合作哦～</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>5.9 万</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1542</t>
-        </is>
+          <t>44.5 万</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>番妹</t>
+          <t>moonmoon</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ff19970828</t>
+          <t>1086935342</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>165/88&amp;#10;&amp;#128234;2652867543@qq.com&amp;#10;不会主动添加 注意防骗</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2652867543@qq.com</t>
+          <t>探店 | 穿搭分享 | 好物分享</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.9 万</t>
+          <t>1.3 万</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>69.7 万</t>
-        </is>
+          <t>5.8 万</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Zz</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>227439485</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>哈哈哈&amp;#10;&amp;#128238;1203820002@qq.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1203820002@qq.com</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.1 万</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>11.7 万</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2ball</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4793952886</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9球</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hyann</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>119970580</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>170/56&amp;#10;记录生活和美貌</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.7 万</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>两美元</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>110052873</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>没有风格&amp;#10;&amp;#129507;：你才没下巴</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5.7 万</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>37.1 万</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kk.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X115011028</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>分享自己喜歡的小東西&amp;#10;隨緣分享</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>14.7 万</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>我要一次过法考</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2602683492</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>买买买狂热爱好者，分享穿搭、不定期送闲置、正在备考。。。</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>QQ的鱼丸</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5487762959</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>157｜90 &amp;#10;女孩子要多尝试各种风格</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>YUaNjw</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>667349524</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>158/41kg&amp;#10;分享日常穿搭～</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2995</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>眠眠不是棉</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1507961157</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>普通人创业^_^&amp;#10;手作工作室</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6393</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.4 万</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>一只&amp;#128017;</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>6387757538</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>穿搭分享</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.9 万</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RUBBIES SP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2676062751</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Hand Made&amp;#128255;&amp;#129668;</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2367</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.5 万</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IT女工穿搭实录</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>101245693</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>IT女民工｜品牌公关&amp;#10;每天出门打工前会对镜自拍&amp;#129331;&amp;#10;记录普通上班族穿搭&amp;#10;（高街为主，zara富豪噗～）</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9127</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DANDANE</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DANTi1E</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>衣服漂亮是因为穿在你的身上&amp;#10;167/46kg &amp;#10;&amp;#128238;1059822051@qq.com</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1059822051@qq.com</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>19.2 万</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>刚睡醒什么事</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>N3252496263</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>170 96&amp;#10;祝大家都能嘎嘎瘦！&amp;#10;&amp;#128238;：3252496263@qq.com</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3252496263@qq.com</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.8 万</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>KKK</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>672721656</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>165 / 98&amp;#10;东北在读&amp;#10;日常分享穿搭！&amp;#10;&amp;#128238;2499525069@qq.com</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2499525069@qq.com</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8144</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>爱吃黄桃的小何</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>549725736</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>快乐生活&amp;#129299; &amp;#10;东西都是瞎发的，喜欢分享&amp;#10;165.7 /98&amp;#10;&amp;#128238;215995422@qq.com&amp;#10;&amp;#129507;何优秀kk</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>215995422@qq.com</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.1 万</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>喜柚 SeeU</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6236236305</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广州一批全品类优质女装货源&amp;#10;十三行，万佳，南城实力档口&amp;#10;感谢喜欢</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>奶泡</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>508920933</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>关注我  每天出闲置衣服   护肤品  还有未开的唇釉  买的多送小礼物哦</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>爱养生的牛牛</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4217022594</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>注意看 这个女人又在搞什么东西？</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2909</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>今天也很饿</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9478398971</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>有你最好啦~谢谢关注&amp;#10;&amp;#128238;1773058780@qq.com</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1773058780@qq.com</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.2 万</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Soso爱黄金&amp;#128142;美尚福珠</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>NAENKID</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>小红书♥️不定时直播&amp;#10;实力黄金珠宝&amp;#128142;批发商（✨全部按克卖✨）&amp;#10;1000平展厅&amp;#127961;工厂直供批发店&amp;#10;地区总代黄金批发&amp;#127775;实力宠粉&amp;#10;宝子们&amp;#128109;关注我你就找对人啦&amp;#129309;</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>叽仔仔</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>942578063</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>记录买买买日常</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>YWZ--shmily</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>158772361</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天天开心</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3257</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.8 万</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>世界上另一个我</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2787748855</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>喜欢删评拉黑  评论都会看</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>物酱</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9411785736</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>物酱 在逃公主の造物匠&amp;#128269;</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>24.5 万</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MISSOWL猫头鹰古董珠</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MISSOWL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>&amp;#129417;猫头鹰古董主理人｜ &amp;#128205;坐标&amp;#127468;&amp;#127463;｜&amp;#10;&amp;#127800;分享古董、小众设计师美物｜&amp;#10;&amp;#128238;&amp;#128140;：969889499@qq.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>969889499@qq.com</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>5.8 万</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>13.1 万</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>予今珠宝</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516546802</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>美国GIA钻石鉴定师&amp;#10;做有温度的珠宝❤️</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.4 万</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AoliCat奥利猫</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>892470247</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>&amp;#127773;优品配饰 快码住吧～&amp;#10;&amp;#128667;已加入运费险服务！</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.8 万</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>16.8 万</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>A.b.Poétique</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>9473144403</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>“时装鞋，首先是装饰艺术品”&amp;#10;地址：上海黄浦区南昌路166弄3号&amp;#10;*产品均受外观专利与版权©️保护，仿冒必究。</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.1 万</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.4 万</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>萝卜馅儿蒸饺</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>797713510</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>穿搭无固定风格｜平价好物分享｜164&amp;#10;无滤镜p图原图直出｜理性种草喔&amp;#10;&amp;#128238;channelgood@163.com</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>channelgood@163.com</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.7 万</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>园子元子</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>590701835</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>一个自娱自乐的人</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>十方</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>pengdaxian2410</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>原创自制小众饰品、独立艺术家、保研油画研究生毕业，macrame手绳爱好者，持续创作通往自由&amp;#10;&amp;#10;不回私信 &amp;#129665; 看TOP豁然开朗&amp;#10;合作请&amp;#128238;1003702272@qq.com</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1003702272@qq.com</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.5 万</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.8 万</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>聪明的不肥</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>623254486</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>161/88&amp;#10;放镜子是为了证明真的没拉腿&amp;#128557;&amp;#10;大腿46 小腿33 腰围62&amp;#10;&amp;#128238;1535320416@qq.com不看私信</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1535320416@qq.com</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.2 万</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>29.5 万</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>叫恒恒干嘛</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>lshhh0314</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>&amp;#128103;&amp;#127995;160cm/40kg &amp;#10;&amp;#129419;感谢你的关注&amp;#10;&amp;#128238;1422322998@qq.com&amp;#10;&amp;#129507;踏遍历历万乡_</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1422322998@qq.com</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>26.1 万</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>月美丽</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>498845915</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>这是一个高个子的魁梧女孩给大家的有爱分享基地。</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.1 万</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>莞莞の首饰屋</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>9583606159</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>一个整日摸玉石珍珠的铲屎官。</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2810</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>绵羊很cool</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>zzyi320</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>167 / 50kg 01 双鱼座女孩&amp;#10;分享穿搭  蟹蟹喜欢&amp;#129408;️&amp;#10;&amp;#129507;：绵羊很cool_&amp;#10;&amp;#128238;：2861777938@qq.com</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2861777938@qq.com</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.4 万</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>121.6 万</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>11525</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>酥酥宝汁dd</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>821037888</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>162/98&amp;#10;理性种草 快乐冲浪&amp;#127940;‍♀️&amp;#10;&amp;#128238;:1171872448@qq.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1171872448@qq.com</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7679</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>某卷几</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ry1121_</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>&amp;#128238;303960847@qq.com</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>303960847@qq.com</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>iF</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>382962381</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>爱家人 爱生活 爱范丞丞&amp;#10;佛系指数⭐️⭐️⭐️⭐️⭐️</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.2 万</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>手工结艺</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LMZB668899</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>手工结艺  精品编织  手工编绳爱好者</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.4 万</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>邱黎</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Saocom</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>hi 我是邱黎，在国内一边精选工厂，直播卖货，一边拍纪录片《中国买卖》，疫情后会继续抽时间去国外拍纪录片《我去看世界》。&amp;#10;&amp;#128536;直播时间：每天上午和下午时间段&amp;#10;欢迎在主页店铺选购我们精选的产品。</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2.6 万</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.2 万</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>久久金管家</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>9999gd</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>咨询@久久金管小助理 &amp;#10;让黄金回收变简单&amp;#10;108家连锁</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4542</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.3 万</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>小五月蜜桃&amp;#127825;</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>405363027</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>分享穿搭&amp;#127810;&amp;#10;博主身高168｜103斤&amp;#10;&amp;#128238;：2537234256@qq.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2537234256@qq.com</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3227</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.6 万</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>快乐海盗</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1181652023</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>想做一个普普通通的小小穿搭博主&amp;#10;用你们发财的小手点点关&amp;#128055;和❤️&amp;#10;宝宝们，视频长度有限理性下单（心疼&amp;#128176;&amp;#128176;）</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>番茄酱肉包</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>blank7774</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>hi～宝宝们好&amp;#10;身高157左右，体重82-86之间浮动～&amp;#10;理性种草，蟹蟹宝们的关注૮₍ ˃ ⤙ ˂ ₎ა</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.5 万</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7hours</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>630924197</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>166 94左右</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1.1 万</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>25.6 万</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>killer阿毛</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>940772969</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>欢迎来到我滴&amp;#10;第二空间✨&amp;#10;想1000粉，想送衣服，想播种快乐……&amp;#10;宝子们给我冲冲以冲冲！</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3123</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>黄金回收梦洁&amp;#127808;太原&amp;#129412;</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>qm155790</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>&amp;#128044;黄金回收太原&amp;#127569;上门&amp;#128017;&amp;#129426;&amp;#128062;&amp;#10;&amp;#128057;按融通金大盘➖5每克回收&amp;#129408;&amp;#10;&amp;#128142;分享黄金小知识➕每日金价&amp;#128025;&amp;#10;&amp;#128011;接收全国快递没有最低克数限制&amp;#129419;&amp;#10;&amp;#129412;每天都&amp;#127542;全新金饰品低价出&amp;#129409;</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3218</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>钮枯禄氏-小胡（减肥</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5366602885</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>162-100斤&amp;#10;腰围62&amp;#10;大腿50   小腿33&amp;#10;&amp;#128237;：1580077310@qq.com</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1580077310@qq.com</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1256</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.1 万</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>麻辣香锅中辣</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>6288291366</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>168/46</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1653</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>五一</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>567284073</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>✨身高 158  体重 100✨&amp;#10;每个月的工资都用来测评&amp;#127825;Pdd 衣服、包包、鞋子&amp;#128095;希望能够帮助爱购物的你！挖宝省&amp;#128176;和避雷❌&amp;#10;&amp;#128238;1500036426@qq.com</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1500036426@qq.com</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1.5 万</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>20.1 万</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>鑫亮珠宝分享</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>602742049</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鑫亮金店烟台市牟平区正阳路407号&amp;#10;，❤️：xinliang010</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1582</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.0 万</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>5.8一克的银手镯是假的</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1531106097</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>姐妹们注意，小红书里卖银手镯的只要没有明说自己家的是“足银999”就是假的，买的时候一定要确认好，不然找售后会跟你扯皮说她没说过自己家的是足银999的，不给退换。尤其是5.8一克卖的那家‼️</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5942</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>chuerxx</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>WILG_0421</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>163/85&amp;#10;多喝水啊 一定要多喝水&amp;#10;&amp;#128238;854340954@qq.com</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>854340954@qq.com</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ＳＵＮＮＹ</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>sunnymao</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>感谢喜欢&amp;#10;随缘定制&amp;#10;&amp;#128238;hym468&amp;#127823;@绿.com</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5495</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.5 万</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>刘富贵～&amp;#129313;</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>758887763</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>喜欢黄金首饰的美人儿～</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>芋了个芋</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>580309743</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>频繁记录着，因为生活值得</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.0 万</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>蒋小蛋子（黑黄皮）</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>801616187</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>野生黑黄皮测评博主原相机拍摄 160 90斤肩38 &amp;#128059;76 腰63 臀84 大腿46小腿32 &amp;#10;合作&amp;#128238;：2437740222@qq.com（备注品牌来意）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2437740222@qq.com</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>8.2 万</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>20.1 万</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>单小吖</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>866985241</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>163   50KG  &amp;#10;喜欢各种买买买！！！   &amp;#10;每天都有好物分享哦  种草纯分享&amp;#129395;</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.7 万</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>草莓酱</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1686081665</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>162/50  微胖小个子穿搭 &amp;#10;腰围66 大腿围51 小腿围34&amp;#10;ᵕ̈ &amp;#127799;ᵕ̈  &amp;#127799;ᵕ̈  &amp;#127799;ᵕ̈  &amp;#127799;ᵕ̈  &amp;#127799;ᵕ̈  &amp;#127799; &amp;#10;一千粉里抽宋裤纸&amp;#10;&amp;#128087;1973599926@qq.com</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1973599926@qq.com</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.4 万</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>徐一只猫来</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>6270139206</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>173/104&amp;#10;分享多风格穿搭&amp;#10;让我们一起悄悄变美&amp;#10;3339098808@qq.com</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3339098808@qq.com</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>小小汤</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>4925030520</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>158 穿搭/好物 分享&amp;#128149;&amp;#10;3166573041@qq.com</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3166573041@qq.com</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8644</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>美羊羊今天穿什么</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>115715630</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>155 90 骨架小肉肉多&amp;#10;身材偏梨形～腰围55 大腿50 小腿30&amp;#10;&amp;#128238;suiyull@qq.com</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>suiyull@qq.com</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2.6 万</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>26.4 万</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>我最喜欢我自己</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>4962816965</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>158/98（龟速减肥ing..&amp;#10;喜欢上班 因为没钱&amp;#10;&amp;#128238;yinwei0410@qq.com</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>yinwei0410@qq.com</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>6061</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.2 万</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>许新鸽</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>449129120</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>身高162/体重92（&amp;#127824;型身材）&amp;#10;&amp;#128238;2210645858@qq.com</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2210645858@qq.com</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2.8 万</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>70.6 万</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>兜兜别熬夜</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1144590590</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>&amp;#128140;该用户关注了你&amp;#10;努力成为传递能量的人</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2423</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.2 万</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>欧阳&amp;#128048;</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>634348608</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>日常！分享穿搭！分享好物！关注哦！&amp;#10;原相机实拍！都是福利款！不退不换</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1217</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6186</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>元气少女糖</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1692528082</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>00后故宫主播日常工作穿搭&amp;#128105;&amp;#127995;‍&amp;#128295;&amp;#10;无滤镜无美颜简直不要太真实&amp;#10;163cm |50.5kg &amp;#129392;</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>7778</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.3 万</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>瘦瘦&amp;#128168;</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>404296125</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>净身高体重：163.108&amp;#127824;&amp;#10;腰围69.大腿围52.小腿围36.臀围92&amp;#10;希望所有姐妹不踩雷&amp;#10;&amp;#128238;1783756642@qq.com</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1783756642@qq.com</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>6660</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>16.4 万</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>再陈一碗饭</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>blue979797</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>160 | 47.5  日常ootd &amp;#10;&amp;#10;→</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8026</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>金凤霞</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>9431608117</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>想变成穿搭博主 让世界和我一样土&amp;#10;身高160体重95腰围63臀围87大腿48小腿33&amp;#10;2672410103@qq.com</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2672410103@qq.com</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2.2 万</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.2 万</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>饱饱.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>5216735917</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>谢谢宝们喜欢～&amp;#10;原相机拍摄&amp;#10;&amp;#127872;163/50kg&amp;#10;&amp;#128238;2748454554@qq.com</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2748454554@qq.com</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>4653</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>12.9 万</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>周万福珠宝店</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>9427163094</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>您的专属小银匠</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2413</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>许愿</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4274948837</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>希望爸爸早日苏醒，早日好转！</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3344</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>芮吃鱼</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Rz1yu_0829</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>167/50kg&amp;#10;⬆️</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1635</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.0 万</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>慧雅Lya</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>huiya150</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>纯野生博主&amp;#10;一个普普通通的小个子&amp;#10;穿搭不设限&amp;#10;佛系分享，感谢喜欢♥️&amp;#10;&amp;#128233;：1142510136@qq.com</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1142510136@qq.com</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3.2 万</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>14.7 万</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>是董小姐</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>844801943</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>感谢相遇～&amp;#10;IT：165/110 微梨型身材&amp;#10;➘ ➘ ➘抱歉不回私信&amp;#10;&amp;#128214;1321774744@qq.com</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1321774744@qq.com</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>10.8 万</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>95.9 万</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>王源宝贝儿</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>538662777</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1471724760@qq.com</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1471724760@qq.com</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.6 万</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>橙橙（裤子博主）</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>6228485572</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>疫情原因 暂时不能更新 抱歉啦&amp;#10;164/100&amp;#10;不忘初心 &amp;#10;&amp;#128238;2628450884@qq.com</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2628450884@qq.com</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1481</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.9 万</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>八月闲不住</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>jj18639364187</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>02年大三学生 叫我八月就好啦&amp;#129299;&amp;#10;好物推荐/日常开箱/真实测评&amp;#128722;&amp;#10;欢迎大家收看养成系的快乐&amp;#128587;&amp;#127995;‍♀️&amp;#10;&amp;#127968;住在评论区 我们一块加油⛽️&amp;#10;（问裤子请说清楚是哪条裤子 被问的太多了</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.7 万</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>玉师傅</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>505672797</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>手镯吊坠专业修复</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>5.5 万</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>14.2 万</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>小瓜太困了</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>5231580369</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>165｜120 梨形微胖&amp;#128103;&amp;#10;腰围70 臀围95 大腿围57 小腿围35&amp;#10;原相机拍摄｜宠粉&amp;#128149;&amp;#10;&amp;#128238;308134036@qq.com</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>308134036@qq.com</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.5 万</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>10.9 万</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>鸿顺黄金</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>4946120569</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>&amp;#127464;&amp;#127475;专业黄金回收&amp;#10;&amp;#127464;&amp;#127475;诚信经营 称准价实&amp;#10;&amp;#127464;&amp;#127475;资质齐全 实体保障 专业评估 实时打款</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1.7 万</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.3 万</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>你的瑶妹</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>754448486</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>168 47kg 微&amp;#127824;&amp;#10;腰59 大腿47 小腿32 &amp;#10;五道口mti在读&amp;#10;分享自己喜欢的穿搭～&amp;#10;&amp;#128238;1042858670@qq.com</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1042858670@qq.com</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.7 万</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>卢卢不吃辣</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>303362966</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>168/100&amp;#10;在读大学生一枚｜分享日常穿搭&amp;#10;&amp;#127824;大腿围50小腿围33腰围67臀围91&amp;#10;谢谢宝子们的喜欢&amp;#10;&amp;#128238;1641824456@qq.com</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1641824456@qq.com</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>7287</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>10.9 万</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>菜菜</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>4278604104</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>162/92&amp;#10;谢谢关注 我会努力做好自己热爱的事&amp;#10;&amp;#127540;️2017036856@qq.com</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2017036856@qq.com</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2113</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.9 万</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +4131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,283 +4157,213 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>邮箱</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>粉丝数</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>点赞数</t>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>总点赞数</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>均</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gagawi</t>
+          <t>大头文</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>736917227</t>
+          <t>C891339057</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>韩国留学｜分享日常</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>664</t>
+          <t>165/108的胖胖文&amp;#10;分享喜欢的穿搭&amp;#10;&amp;#128238;C891339057</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6478</t>
-        </is>
+          <t>7273</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17.8 万</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>我的嗓子怎么成这杨女士</t>
+          <t>冯点点瘦啦&amp;#127752;</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>102457863</t>
+          <t>DIANDIAN_</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>你呢今天过得开心吗</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>270</t>
+          <t>【分享囍欢】❤️&amp;#10;94年的小&amp;#128054;&amp;#10;164cm 121斤（已减20斤 努力减减中）&amp;#10;大臀星人&amp;#128518;&amp;#10;无须羡慕别人 自信的人最美啦～</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5453</t>
-        </is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6673</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>少女小古子</t>
+          <t>张哈哈</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1473876508</t>
+          <t>1426123783</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>身高160 体重95 梨形身材&amp;#10;盗图投诉！</t>
+          <t>168/98&amp;#10;&amp;#128238;：835731225@qq.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8680</t>
+          <t>835731225@qq.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.7 万</t>
-        </is>
+          <t>7447</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>27.8 万</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>小宇</t>
+          <t>牛奶糖&amp;#127852;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Xiaoyua</t>
+          <t>450414537</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>164 82</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6129</t>
+          <t>一个爱买买买的女孩子&amp;#128103;&amp;#127995;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35.6 万</t>
-        </is>
+          <t>8679</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>31.8 万</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>殷三三</t>
+          <t>菜花</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bella13</t>
+          <t>Miacaihua</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>喜欢彩色吗  &amp;#127815;&amp;#127826;&amp;#127817;&amp;#129361;&amp;#127826;&amp;#10;| 160/84 穿搭分享｜</t>
+          <t>&amp;#128278;170 / 100｜不回私信&amp;#10;&amp;#128161;分享实用的精致穿搭&amp;#10;&amp;#128238;963859547@qq.com&amp;#10;&amp;#129507;是菜花吖（悄悄话在这说）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>963859547@qq.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.5 万</t>
-        </is>
+          <t>6.4 万</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>50.5 万</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>986</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>特点一个污</t>
+          <t>草没味</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>csx123123</t>
+          <t>953726786</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>随便穿穿滴日常&amp;#10;盒&amp;#128284;</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>870</t>
+          <t>&amp;#127465;&amp;#127466;TUM历险记&amp;#10;碎碎念版</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.2 万</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sin%11</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>XXXX11284444</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>165 88&amp;#10;bb们！不要连赞！！我会被&amp;#129525;6⃣️的！&amp;#10;&amp;#128238;：3345337712@qq.com</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3974</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.6 万</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>小熊丸妮</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>606193715</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>发发照片</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.3 万</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>WIKYX</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1039414526</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>&amp;#128238;3280492342@qq.com</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8112</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>l00l</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>777208668</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上学好累:(</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2717</t>
-        </is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
